--- a/streamlit_app_v.7/data/lookups/Zonas_operacao_urbana_completo_Vibra.xlsx
+++ b/streamlit_app_v.7/data/lookups/Zonas_operacao_urbana_completo_Vibra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\GitHub\PROJETO_NORTIS\streamlit_app\data\lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D285FD31-67DC-49CB-9A0D-9A79E0C389CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0323643D-E558-488B-AC64-181939254821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>Tipo de Zona</t>
   </si>
@@ -40,30 +40,6 @@
     <t>Potencial para projeto imobiliário?</t>
   </si>
   <si>
-    <t>T2A</t>
-  </si>
-  <si>
-    <t>T2B</t>
-  </si>
-  <si>
-    <t>T2C</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q8A</t>
-  </si>
-  <si>
-    <t>Q8B</t>
-  </si>
-  <si>
     <t>ZEU*</t>
   </si>
   <si>
@@ -106,15 +82,6 @@
     <t>ZPI-2</t>
   </si>
   <si>
-    <t>Arco Tietê</t>
-  </si>
-  <si>
-    <t>PIU Setor Central</t>
-  </si>
-  <si>
-    <t>Faria Lima</t>
-  </si>
-  <si>
     <t>Transformação</t>
   </si>
   <si>
@@ -151,9 +118,6 @@
     <t>ZEIS-3 AGUA ESPRAIADA</t>
   </si>
   <si>
-    <t>ZEIS-5 AGUA ESPRAIADA</t>
-  </si>
-  <si>
     <t>ZM AGUA BRANCA</t>
   </si>
   <si>
@@ -163,10 +127,19 @@
     <t>ZEIS-2 AGUA BRANCA</t>
   </si>
   <si>
-    <t>Agua Espraiada</t>
-  </si>
-  <si>
-    <t>Agua Branca</t>
+    <t>ARCO</t>
+  </si>
+  <si>
+    <t>FARIA</t>
+  </si>
+  <si>
+    <t>AGUA</t>
+  </si>
+  <si>
+    <t>ZM AGUA ESPRAIADA</t>
+  </si>
+  <si>
+    <t>ZEIS-3 AGUA BRANCA</t>
   </si>
 </sst>
 </file>
@@ -534,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,10 +537,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -576,7 +549,7 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -584,19 +557,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -604,19 +577,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -624,19 +597,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -644,19 +617,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -664,19 +637,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -684,19 +657,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -704,19 +677,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -724,19 +697,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -744,19 +717,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -764,19 +737,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -784,19 +757,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -804,19 +777,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="D14">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -824,19 +797,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="D15">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -844,19 +817,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -864,19 +837,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C17">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -884,19 +857,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -904,19 +877,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -924,19 +897,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C20">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -944,19 +917,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -964,19 +937,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -984,19 +957,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1004,19 +977,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1024,19 +997,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1044,19 +1017,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C26">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1064,161 +1037,21 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28">
-        <v>4</v>
-      </c>
-      <c r="D28">
-        <v>63</v>
-      </c>
-      <c r="E28" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29">
-        <v>4</v>
-      </c>
-      <c r="D29">
-        <v>63</v>
-      </c>
-      <c r="E29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>28</v>
-      </c>
-      <c r="E31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32">
-        <v>28</v>
-      </c>
-      <c r="E32" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>2.25</v>
-      </c>
-      <c r="D33">
-        <v>28</v>
-      </c>
-      <c r="E33" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34">
-        <v>2.25</v>
-      </c>
-      <c r="D34">
-        <v>28</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34">
         <v>1</v>
       </c>
     </row>

--- a/streamlit_app_v.7/data/lookups/Zonas_operacao_urbana_completo_Vibra.xlsx
+++ b/streamlit_app_v.7/data/lookups/Zonas_operacao_urbana_completo_Vibra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\GitHub\PROJETO_NORTIS\streamlit_app\data\lookups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\GitHub\NORTIS-OFICIAL\streamlit_app_v.7\data\lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0323643D-E558-488B-AC64-181939254821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F929B8E-AD69-4A9A-8F99-794293F6D4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="16095" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t>Tipo de Zona</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Potencial para projeto imobiliário?</t>
   </si>
   <si>
-    <t>ZEU*</t>
-  </si>
-  <si>
     <t>ZEM</t>
   </si>
   <si>
@@ -140,6 +137,81 @@
   </si>
   <si>
     <t>ZEIS-3 AGUA BRANCA</t>
+  </si>
+  <si>
+    <t>ZEU</t>
+  </si>
+  <si>
+    <t>AC-1</t>
+  </si>
+  <si>
+    <t>AC-2</t>
+  </si>
+  <si>
+    <t>Praça Canteiro</t>
+  </si>
+  <si>
+    <t>Zca</t>
+  </si>
+  <si>
+    <t>ZEUa</t>
+  </si>
+  <si>
+    <t>ZC-ZEIS</t>
+  </si>
+  <si>
+    <t>ZCOR-1</t>
+  </si>
+  <si>
+    <t>ZCOR-2</t>
+  </si>
+  <si>
+    <t>ZCOR-3</t>
+  </si>
+  <si>
+    <t>ZCORa</t>
+  </si>
+  <si>
+    <t>Sem potencial</t>
+  </si>
+  <si>
+    <t>ZPR</t>
+  </si>
+  <si>
+    <t>ZPDS</t>
+  </si>
+  <si>
+    <t>ZPDSr</t>
+  </si>
+  <si>
+    <t>ZOE</t>
+  </si>
+  <si>
+    <t>ZMIS</t>
+  </si>
+  <si>
+    <t>ZMISa</t>
+  </si>
+  <si>
+    <t>ZEUPa</t>
+  </si>
+  <si>
+    <t>ZERa</t>
+  </si>
+  <si>
+    <t>ZER-2</t>
+  </si>
+  <si>
+    <t>ZER-1</t>
+  </si>
+  <si>
+    <t>ZEPAM</t>
+  </si>
+  <si>
+    <t>ZMa</t>
+  </si>
+  <si>
+    <t>ZEIS-4</t>
   </si>
 </sst>
 </file>
@@ -507,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,10 +609,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -549,7 +621,7 @@
         <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -557,10 +629,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -569,7 +641,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -577,10 +649,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -589,7 +661,7 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -597,10 +669,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -609,7 +681,7 @@
         <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -617,10 +689,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -629,7 +701,7 @@
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -637,10 +709,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>2.5</v>
@@ -649,7 +721,7 @@
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -657,10 +729,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -669,7 +741,7 @@
         <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -677,10 +749,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -689,7 +761,7 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -697,10 +769,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -709,7 +781,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -717,10 +789,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -729,7 +801,7 @@
         <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -737,10 +809,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -749,7 +821,7 @@
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -757,10 +829,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -769,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -777,10 +849,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>2.25</v>
@@ -789,7 +861,7 @@
         <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -797,10 +869,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>2.25</v>
@@ -809,7 +881,7 @@
         <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -817,10 +889,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -829,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -837,10 +909,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -849,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -857,10 +929,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -869,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -877,10 +949,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -889,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -897,10 +969,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -909,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -917,10 +989,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -929,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -937,10 +1009,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -949,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -957,10 +1029,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -969,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -977,10 +1049,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -989,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -997,10 +1069,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1009,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1017,10 +1089,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1029,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1037,10 +1109,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1049,10 +1121,160 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
